--- a/output/PERSEVERA_32041825000140.xlsx
+++ b/output/PERSEVERA_32041825000140.xlsx
@@ -636,10 +636,10 @@
         <v>44165</v>
       </c>
       <c r="B23">
-        <v>0.1048087</v>
+        <v>0.09963889999999997</v>
       </c>
       <c r="C23">
-        <v>0.01988972390728039</v>
+        <v>0.01511729054876709</v>
       </c>
     </row>
   </sheetData>

--- a/output/PERSEVERA_32041825000140.xlsx
+++ b/output/PERSEVERA_32041825000140.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>PERSEVERA COMPASS ADVISORY FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,260 +383,194 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>43524</v>
       </c>
       <c r="B2">
-        <v>0.004107700000000047</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>43555</v>
       </c>
       <c r="B3">
-        <v>0.002437500000000092</v>
-      </c>
-      <c r="C3">
         <v>-0.001663367385789316</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>43585</v>
       </c>
       <c r="B4">
-        <v>0.006069099999999938</v>
-      </c>
-      <c r="C4">
         <v>0.003622769499345146</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>43616</v>
       </c>
       <c r="B5">
-        <v>0.02368309999999996</v>
-      </c>
-      <c r="C5">
         <v>0.01750774375239228</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>43646</v>
       </c>
       <c r="B6">
-        <v>0.04015579999999996</v>
-      </c>
-      <c r="C6">
         <v>0.01609160100425622</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>43677</v>
       </c>
       <c r="B7">
-        <v>0.04614199999999991</v>
-      </c>
-      <c r="C7">
         <v>0.005755099380304385</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>43708</v>
       </c>
       <c r="B8">
-        <v>0.04098439999999992</v>
-      </c>
-      <c r="C8">
         <v>-0.004930114649827622</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>43738</v>
       </c>
       <c r="B9">
-        <v>0.06145289999999992</v>
-      </c>
-      <c r="C9">
         <v>0.0196626385563512</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>43769</v>
       </c>
       <c r="B10">
-        <v>0.07351909999999995</v>
-      </c>
-      <c r="C10">
         <v>0.01136762639208966</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>43799</v>
       </c>
       <c r="B11">
-        <v>0.06534580000000001</v>
-      </c>
-      <c r="C11">
         <v>-0.007613558063382375</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>43830</v>
       </c>
       <c r="B12">
-        <v>0.08444840000000009</v>
-      </c>
-      <c r="C12">
         <v>0.01793089154713901</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>43861</v>
       </c>
       <c r="B13">
-        <v>0.07930389999999998</v>
-      </c>
-      <c r="C13">
         <v>-0.00474388638500467</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>43890</v>
       </c>
       <c r="B14">
-        <v>0.0705768</v>
-      </c>
-      <c r="C14">
         <v>-0.008085859784255356</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>43921</v>
       </c>
       <c r="B15">
-        <v>0.0777064999999999</v>
-      </c>
-      <c r="C15">
         <v>0.006659681024285158</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>43951</v>
       </c>
       <c r="B16">
-        <v>0.1063468999999999</v>
-      </c>
-      <c r="C16">
         <v>0.02657532454337064</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>43982</v>
       </c>
       <c r="B17">
-        <v>0.1261797</v>
-      </c>
-      <c r="C17">
         <v>0.01792638457250617</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>44012</v>
       </c>
       <c r="B18">
-        <v>0.1135120000000001</v>
-      </c>
-      <c r="C18">
         <v>-0.01124838247395155</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>44043</v>
       </c>
       <c r="B19">
-        <v>0.1385158</v>
-      </c>
-      <c r="C19">
         <v>0.0224548994532614</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>44074</v>
       </c>
       <c r="B20">
-        <v>0.1288654</v>
-      </c>
-      <c r="C20">
         <v>-0.008476298703979257</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>44104</v>
       </c>
       <c r="B21">
-        <v>0.1060483999999999</v>
-      </c>
-      <c r="C21">
         <v>-0.02021233000852019</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>44135</v>
       </c>
       <c r="B22">
-        <v>0.08326290000000003</v>
-      </c>
-      <c r="C22">
         <v>-0.02060081638380373</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>44165</v>
       </c>
       <c r="B23">
-        <v>0.09963889999999997</v>
-      </c>
-      <c r="C23">
-        <v>0.01511729054876709</v>
+        <v>0.01321793629228862</v>
       </c>
     </row>
   </sheetData>
